--- a/public/excel/rankTemplate.xlsx
+++ b/public/excel/rankTemplate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>endTime</t>
   </si>
   <si>
+    <t>closeTime</t>
+  </si>
+  <si>
     <t>唯一id</t>
   </si>
   <si>
@@ -60,22 +63,52 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>清理时间</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>2025-03-06 15:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-06 16:59:59</t>
-  </si>
-  <si>
-    <t>2023-03-06 17:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-06 19:59:59</t>
+    <t>2025-03-10 10:00:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 10:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 11:09:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 18:10:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 20:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 21:09:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 16:10:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 16:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 17:09:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 17:10:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 17:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-10 18:09:59</t>
+  </si>
+  <si>
+    <t>openId</t>
   </si>
   <si>
     <t>rank</t>
@@ -84,6 +117,9 @@
     <t>rewards</t>
   </si>
   <si>
+    <t>open表id</t>
+  </si>
+  <si>
     <t>排名</t>
   </si>
   <si>
@@ -121,6 +157,18 @@
   </si>
   <si>
     <t>{"200303":1,"103":1000}</t>
+  </si>
+  <si>
+    <t>{"103":1000,"438":100,"437":101}</t>
+  </si>
+  <si>
+    <t>{"103":1000,"438":100,"436":101}</t>
+  </si>
+  <si>
+    <t>{"103":1000,"438":100,"437":102}</t>
+  </si>
+  <si>
+    <t>{"103":1000,"438":100,"436":102}</t>
   </si>
 </sst>
 </file>
@@ -1060,23 +1108,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="29.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,42 +1141,51 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1138,47 +1196,56 @@
         <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1189,44 +1256,173 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1239,10 +1435,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1257,41 +1453,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1305,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1319,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1333,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1347,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1361,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1375,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1389,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1403,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1417,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1425,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1439,13 +1635,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1453,13 +1649,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1467,13 +1663,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1481,13 +1677,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1495,13 +1691,279 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/rankTemplate.xlsx
+++ b/public/excel/rankTemplate.xlsx
@@ -4,31 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="open" sheetId="1" r:id="rId1"/>
     <sheet name="reward" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -72,40 +59,28 @@
     <t>string</t>
   </si>
   <si>
-    <t>2025-03-10 10:00:00</t>
-  </si>
-  <si>
-    <t>2025-03-10 10:59:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 11:09:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 18:10:00</t>
-  </si>
-  <si>
-    <t>2025-03-10 20:59:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 21:09:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 16:10:00</t>
-  </si>
-  <si>
-    <t>2025-03-10 16:59:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 17:09:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 17:10:00</t>
-  </si>
-  <si>
-    <t>2025-03-10 17:59:59</t>
-  </si>
-  <si>
-    <t>2025-03-10 18:09:59</t>
+    <t>2025-03-12 07:00:00</t>
+  </si>
+  <si>
+    <t>2025-03-12 07:58:59</t>
+  </si>
+  <si>
+    <t>2025-03-12 07:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-12 08:00:00</t>
+  </si>
+  <si>
+    <t>2025-03-23 23:58:59</t>
+  </si>
+  <si>
+    <t>2025-03-23 23:59:59</t>
+  </si>
+  <si>
+    <t>2025-03-31 23:58:59</t>
+  </si>
+  <si>
+    <t>2025-03-31 23:59:59</t>
   </si>
   <si>
     <t>openId</t>
@@ -129,57 +104,66 @@
     <t>map[int,int]</t>
   </si>
   <si>
-    <t>{"103":1000,"438":100,"437":100}</t>
-  </si>
-  <si>
-    <t>{"103":700,"438":50,"437":50}</t>
-  </si>
-  <si>
-    <t>{"103":500,"438":20,"437":20}</t>
-  </si>
-  <si>
-    <t>{"103":1000,"438":100,"436":100}</t>
-  </si>
-  <si>
-    <t>{"103":700,"438":50,"436":50}</t>
-  </si>
-  <si>
-    <t>{"103":500,"438":20,"436":20}</t>
-  </si>
-  <si>
-    <t>{"200102":1,"103":1000}</t>
-  </si>
-  <si>
-    <t>{"103":700}</t>
-  </si>
-  <si>
-    <t>{"103":500}</t>
-  </si>
-  <si>
-    <t>{"200303":1,"103":1000}</t>
-  </si>
-  <si>
-    <t>{"103":1000,"438":100,"437":101}</t>
-  </si>
-  <si>
-    <t>{"103":1000,"438":100,"436":101}</t>
-  </si>
-  <si>
-    <t>{"103":1000,"438":100,"437":102}</t>
-  </si>
-  <si>
-    <t>{"103":1000,"438":100,"436":102}</t>
+    <t>{"200102":1,"103":6000}</t>
+  </si>
+  <si>
+    <t>{"200102":1,"103":4500}</t>
+  </si>
+  <si>
+    <t>{"200102":1,"103":3000}</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>{"105":300,"103":2000}</t>
+  </si>
+  <si>
+    <t>11,30</t>
+  </si>
+  <si>
+    <t>{"105":200,"103":1800}</t>
+  </si>
+  <si>
+    <t>31,50</t>
+  </si>
+  <si>
+    <t>{"105":100,"103":1500}</t>
+  </si>
+  <si>
+    <t>51,100</t>
+  </si>
+  <si>
+    <t>{"105":50,"103":1000}</t>
+  </si>
+  <si>
+    <t>{"103":3000}</t>
+  </si>
+  <si>
+    <t>{"103":2000}</t>
+  </si>
+  <si>
+    <t>{"103":1500}</t>
+  </si>
+  <si>
+    <t>{"103":1200}</t>
+  </si>
+  <si>
+    <t>{"103":1000}</t>
+  </si>
+  <si>
+    <t>{"103":800}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,34 +174,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,19 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,8 +242,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,16 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,42 +312,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +375,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,133 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +569,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,188 +618,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,61 +775,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1108,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1119,8 +1103,8 @@
     <col min="1" max="1" width="20.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.8888888888889" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1135,10 +1119,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1155,10 +1139,10 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1175,10 +1159,10 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1193,15 +1177,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1210,18 +1194,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1233,15 +1217,15 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1250,19 +1234,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1270,19 +1254,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1290,19 +1274,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1310,19 +1294,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1330,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1350,79 +1334,359 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
         <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
       <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="B27" s="1">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
         <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1435,16 +1699,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="65.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1453,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1467,13 +1732,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1484,10 +1749,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1497,11 +1762,11 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1511,11 +1776,11 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1525,11 +1790,11 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1537,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
         <v>1</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1551,13 +1816,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1565,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1579,13 +1844,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
         <v>1</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1593,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
         <v>2</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1607,13 +1872,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1621,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1635,13 +1900,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
         <v>2</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1649,13 +1914,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1663,13 +1928,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1677,13 +1942,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1691,13 +1956,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
         <v>3</v>
       </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1705,13 +1970,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1719,13 +1984,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1733,13 +1998,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1747,13 +2012,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1761,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1775,13 +2040,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1789,13 +2054,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1803,13 +2068,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1817,13 +2082,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1831,13 +2096,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1845,13 +2110,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1859,13 +2124,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1873,13 +2138,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1887,13 +2152,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1901,13 +2166,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1915,13 +2180,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1929,13 +2194,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1943,13 +2208,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1957,13 +2222,1749 @@
         <v>34</v>
       </c>
       <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>11</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1">
+        <v>14</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1">
+        <v>14</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1">
+        <v>16</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1">
+        <v>16</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>16</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1">
+        <v>17</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>17</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>17</v>
+      </c>
+      <c r="C104" s="2">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>17</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>17</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>17</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1">
         <v>18</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C108" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
+      <c r="D108" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>18</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>19</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>19</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>19</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>19</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>19</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>20</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>20</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>20</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>20</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>21</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>21</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>21</v>
+      </c>
+      <c r="C128" s="2">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>21</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>21</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>21</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>22</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1">
+        <v>22</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1">
+        <v>22</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1">
+        <v>22</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1">
+        <v>22</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1">
+        <v>23</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1">
+        <v>23</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1">
+        <v>23</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1">
+        <v>23</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1">
+        <v>23</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1">
+        <v>23</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1">
+        <v>24</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1">
+        <v>24</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1">
+        <v>24</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1">
+        <v>24</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1">
+        <v>24</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1">
+        <v>24</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1">
+        <v>25</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1">
+        <v>25</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1">
+        <v>25</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1">
+        <v>25</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1">
+        <v>25</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1">
+        <v>25</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1">
+        <v>26</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1">
+        <v>26</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1">
+        <v>26</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1">
+        <v>26</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1">
+        <v>26</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1">
+        <v>26</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
